--- a/微信台账登记.xlsx
+++ b/微信台账登记.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\shaunpy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>记录人</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,6 +36,18 @@
   </si>
   <si>
     <t>记录时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备件规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,21 +405,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
